--- a/out/[0 0 0 0 0 0 1].xlsx
+++ b/out/[0 0 0 0 0 0 1].xlsx
@@ -1450,10 +1450,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.006705989986342008</v>
+        <v>-0.0876932231352445</v>
       </c>
       <c r="C2">
-        <v>-1.704696139917791</v>
+        <v>-2.259162663864531</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.0001510178062812223</v>
+        <v>0.02420622784223135</v>
       </c>
       <c r="C3">
-        <v>0.01708327001853014</v>
+        <v>0.148524563089859</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1478,10 +1478,10 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.006688665518641847</v>
+        <v>0.1159763780942242</v>
       </c>
       <c r="C4">
-        <v>1.497460896835281</v>
+        <v>1.356402876781855</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1492,10 +1492,10 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.00618171706046164</v>
+        <v>0.0874194833838156</v>
       </c>
       <c r="C5">
-        <v>2.220753878456687</v>
+        <v>2.382465590888872</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1506,10 +1506,10 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.003512589113195438</v>
+        <v>-0.04005803329328</v>
       </c>
       <c r="C6">
-        <v>-0.5638912669116672</v>
+        <v>-0.4369155116053149</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1520,10 +1520,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.008388867463939152</v>
+        <v>0.1391891372676784</v>
       </c>
       <c r="C7">
-        <v>1.465761448495809</v>
+        <v>1.666876776283658</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1534,10 +1534,10 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.01554646014116673</v>
+        <v>-0.1881528860561522</v>
       </c>
       <c r="C8">
-        <v>-1.457900934139347</v>
+        <v>-2.440953275581708</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.004723276120456017</v>
+        <v>-0.06707089668275772</v>
       </c>
       <c r="C9">
-        <v>-2.996631008127367</v>
+        <v>-3.049606774859071</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1562,10 +1562,10 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.02331861125348514</v>
+        <v>0.3834388265962358</v>
       </c>
       <c r="C10">
-        <v>1.639035681867129</v>
+        <v>7.029371119869213</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1576,10 +1576,10 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.003902773798465129</v>
+        <v>-0.06512263961828321</v>
       </c>
       <c r="C11">
-        <v>-0.7655331375629213</v>
+        <v>-0.8785794186648254</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.01369877633244735</v>
+        <v>0.2712870664039281</v>
       </c>
       <c r="C12">
-        <v>2.476036868249615</v>
+        <v>2.350015378451821</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1604,10 +1604,10 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.00574730004325746</v>
+        <v>-0.08340229999339778</v>
       </c>
       <c r="C13">
-        <v>-0.6761683703205369</v>
+        <v>-0.6135034986293524</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1618,10 +1618,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.001164450423602651</v>
+        <v>-0.01286101823488397</v>
       </c>
       <c r="C14">
-        <v>-0.3473438888932794</v>
+        <v>-0.2852811688427749</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1632,10 +1632,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.01712481580877091</v>
+        <v>-0.2432906106908909</v>
       </c>
       <c r="C15">
-        <v>-2.122371100902587</v>
+        <v>-7.357631856976318</v>
       </c>
       <c r="D15">
         <v>0</v>
